--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -481,31 +481,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>308</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -798,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +835,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -871,13 +846,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -888,7 +863,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -899,13 +874,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -916,91 +891,91 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>509</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D5" t="n">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="E5" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1028,35 +1003,35 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1142</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>1112</v>
+        <v>316</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1064,150 +1039,150 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>1112</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>304</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>injicertify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129</v>
+        <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1216,38 +1191,38 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>945</v>
+        <v>163</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1280,18 +1255,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1300,26 +1275,26 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1328,15 +1303,15 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1344,66 +1319,66 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D20" t="n">
-        <v>896</v>
+        <v>920</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1415,12 +1390,12 @@
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1428,38 +1403,38 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1471,63 +1446,63 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D24" t="n">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
         <v>896</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1536,7 +1511,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1564,7 +1539,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1592,7 +1567,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1616,7 +1591,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1627,13 +1602,13 @@
         <v>176</v>
       </c>
       <c r="D29" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>33</v>
@@ -1644,91 +1619,91 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>141</v>
+        <v>896</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>509</v>
+        <v>937</v>
       </c>
       <c r="D32" t="n">
-        <v>332</v>
+        <v>896</v>
       </c>
       <c r="E32" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1739,16 +1714,16 @@
         <v>509</v>
       </c>
       <c r="D33" t="n">
-        <v>492</v>
+        <v>332</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>12</v>
@@ -1756,7 +1731,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1764,106 +1739,106 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>862</v>
+        <v>896</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>213</v>
+        <v>896</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>288</v>
+        <v>937</v>
       </c>
       <c r="D36" t="n">
-        <v>213</v>
+        <v>802</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="D37" t="n">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G37" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1872,26 +1847,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1142</v>
+        <v>176</v>
       </c>
       <c r="D38" t="n">
-        <v>1112</v>
+        <v>141</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1900,26 +1875,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1142</v>
+        <v>176</v>
       </c>
       <c r="D39" t="n">
-        <v>1111</v>
+        <v>141</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1928,110 +1903,110 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>509</v>
+        <v>937</v>
       </c>
       <c r="D40" t="n">
-        <v>329</v>
+        <v>862</v>
       </c>
       <c r="E40" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>163</v>
+        <v>1142</v>
       </c>
       <c r="D41" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
-        <v>4</v>
-      </c>
       <c r="F41" t="n">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>283</v>
+        <v>509</v>
       </c>
       <c r="D42" t="n">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F42" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1138</v>
+        <v>509</v>
       </c>
       <c r="D43" t="n">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="E43" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>705</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2040,25 +2015,277 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
       </c>
       <c r="F44" t="n">
+        <v>82</v>
+      </c>
+      <c r="G44" t="n">
+        <v>33</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>288</v>
+      </c>
+      <c r="D45" t="n">
+        <v>213</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>60</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>288</v>
+      </c>
+      <c r="D46" t="n">
+        <v>213</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>60</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>509</v>
+      </c>
+      <c r="D47" t="n">
+        <v>329</v>
+      </c>
+      <c r="E47" t="n">
+        <v>134</v>
+      </c>
+      <c r="F47" t="n">
+        <v>34</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>283</v>
+      </c>
+      <c r="D50" t="n">
+        <v>211</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>68</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>163</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>154</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1138</v>
+      </c>
+      <c r="D52" t="n">
+        <v>218</v>
+      </c>
+      <c r="E52" t="n">
+        <v>215</v>
+      </c>
+      <c r="F52" t="n">
+        <v>705</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>163</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
         <v>155</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -431,56 +431,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>264</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>286</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,7 +736,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -835,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -846,13 +796,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -863,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -874,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -891,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -902,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -919,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -930,13 +880,13 @@
         <v>509</v>
       </c>
       <c r="D5" t="n">
-        <v>492</v>
+        <v>329</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,30 +897,30 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>512</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="E6" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1035,87 +985,87 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D9" t="n">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1142</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>1112</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>304</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1143,46 +1093,46 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D13" t="n">
-        <v>896</v>
+        <v>1111</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1191,82 +1141,82 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>163</v>
+        <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1275,26 +1225,26 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1303,26 +1253,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1331,35 +1281,35 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>937</v>
+        <v>176</v>
       </c>
       <c r="D20" t="n">
-        <v>920</v>
+        <v>143</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1371,14 +1321,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1390,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1399,14 +1349,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1418,68 +1368,68 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>332</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1507,39 +1457,39 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>896</v>
+        <v>213</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1563,74 +1513,74 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
         <v>896</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>176</v>
+        <v>1142</v>
       </c>
       <c r="D29" t="n">
-        <v>143</v>
+        <v>1108</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D30" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1639,71 +1589,71 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H30" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D31" t="n">
-        <v>896</v>
+        <v>141</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>937</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>896</v>
+        <v>332</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1731,562 +1681,114 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>896</v>
+        <v>213</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D35" t="n">
-        <v>896</v>
+        <v>213</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>937</v>
+        <v>1142</v>
       </c>
       <c r="D36" t="n">
-        <v>802</v>
+        <v>1110</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D37" t="n">
-        <v>213</v>
+        <v>1112</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>176</v>
-      </c>
-      <c r="D38" t="n">
-        <v>141</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>33</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>176</v>
-      </c>
-      <c r="D39" t="n">
-        <v>141</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>33</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>937</v>
-      </c>
-      <c r="D40" t="n">
-        <v>862</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>74</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1110</v>
-      </c>
-      <c r="E41" t="n">
-        <v>5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>15</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>332</v>
-      </c>
-      <c r="E42" t="n">
-        <v>134</v>
-      </c>
-      <c r="F42" t="n">
-        <v>29</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>492</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>176</v>
-      </c>
-      <c r="D44" t="n">
-        <v>57</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>82</v>
-      </c>
-      <c r="G44" t="n">
-        <v>33</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>288</v>
-      </c>
-      <c r="D45" t="n">
-        <v>213</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>60</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>288</v>
-      </c>
-      <c r="D46" t="n">
-        <v>213</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>60</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>509</v>
-      </c>
-      <c r="D47" t="n">
-        <v>329</v>
-      </c>
-      <c r="E47" t="n">
-        <v>134</v>
-      </c>
-      <c r="F47" t="n">
-        <v>34</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1111</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>13</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>283</v>
-      </c>
-      <c r="D50" t="n">
-        <v>211</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>68</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>163</v>
-      </c>
-      <c r="D51" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>154</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1138</v>
-      </c>
-      <c r="D52" t="n">
-        <v>218</v>
-      </c>
-      <c r="E52" t="n">
-        <v>215</v>
-      </c>
-      <c r="F52" t="n">
-        <v>705</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>163</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>155</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,35 +785,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610</v>
+        <v>945</v>
       </c>
       <c r="D2" t="n">
-        <v>586</v>
+        <v>896</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,46 +869,46 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>509</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>329</v>
+        <v>581</v>
       </c>
       <c r="E5" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D6" t="n">
-        <v>316</v>
+        <v>923</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -917,15 +917,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,46 +981,46 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="D9" t="n">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1032,12 +1032,12 @@
         <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D13" t="n">
-        <v>1111</v>
+        <v>332</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>12</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>143</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,15 +1141,15 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,46 +1205,46 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45848</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>1112</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>277</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,15 +1253,15 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>143</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,15 +1309,15 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1377,26 +1377,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>332</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -1429,18 +1429,18 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D25" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1449,82 +1449,82 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>213</v>
+        <v>896</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>896</v>
+        <v>332</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D28" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H28" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1545,26 +1545,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D29" t="n">
-        <v>1108</v>
+        <v>213</v>
       </c>
       <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
         <v>9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>13</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1573,54 +1573,54 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>143</v>
+        <v>332</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>176</v>
+        <v>1142</v>
       </c>
       <c r="D31" t="n">
-        <v>141</v>
+        <v>1108</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1629,165 +1629,53 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="E32" t="n">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>509</v>
+        <v>1142</v>
       </c>
       <c r="D33" t="n">
-        <v>332</v>
+        <v>1110</v>
       </c>
       <c r="E33" t="n">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>288</v>
-      </c>
-      <c r="D34" t="n">
-        <v>213</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>60</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>288</v>
-      </c>
-      <c r="D35" t="n">
-        <v>213</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>60</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1110</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>15</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>13</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,18 +785,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -805,15 +805,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,18 +897,18 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D6" t="n">
-        <v>923</v>
+        <v>277</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -917,15 +917,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,30 +981,30 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>142</v>
+        <v>896</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1013,14 +1013,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1069,14 +1069,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,54 +1085,54 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45853</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>332</v>
+        <v>923</v>
       </c>
       <c r="E13" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>143</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,26 +1141,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,26 +1169,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,54 +1197,54 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1142</v>
+        <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>1112</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45853</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>277</v>
+        <v>896</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,26 +1253,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1284,23 +1284,23 @@
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,18 +1429,18 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1449,26 +1449,26 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D26" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1477,35 +1477,35 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H26" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>1142</v>
       </c>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>1110</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>12</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1545,31 +1545,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1580,13 +1580,13 @@
         <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>332</v>
+        <v>495</v>
       </c>
       <c r="E30" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1601,31 +1601,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D31" t="n">
-        <v>1108</v>
+        <v>213</v>
       </c>
       <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>60</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
-      </c>
-      <c r="F31" t="n">
-        <v>13</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1636,13 +1636,13 @@
         <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1664,18 +1664,46 @@
         <v>1142</v>
       </c>
       <c r="D33" t="n">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E34" t="n">
         <v>5</v>
       </c>
-      <c r="F33" t="n">
-        <v>15</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="F34" t="n">
+        <v>14</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,18 +981,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1001,15 +1001,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,15 +1085,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,15 +1169,15 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1256,12 +1256,12 @@
         <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,18 +1457,18 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1477,43 +1477,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1142</v>
+        <v>176</v>
       </c>
       <c r="D27" t="n">
-        <v>1110</v>
+        <v>143</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,35 +1541,35 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="D29" t="n">
-        <v>332</v>
+        <v>143</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1580,13 +1580,13 @@
         <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>495</v>
+        <v>332</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1597,30 +1597,30 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>213</v>
+        <v>495</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1629,14 +1629,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1657,53 +1657,165 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>1108</v>
+        <v>213</v>
       </c>
       <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>60</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
         <v>9</v>
-      </c>
-      <c r="F33" t="n">
-        <v>13</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>288</v>
+      </c>
+      <c r="D34" t="n">
+        <v>277</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>45853</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>288</v>
+      </c>
+      <c r="D35" t="n">
+        <v>277</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>1142</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D38" t="n">
         <v>1111</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E38" t="n">
         <v>5</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F38" t="n">
         <v>14</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,46 +897,46 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>277</v>
+        <v>580</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -945,15 +945,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,18 +1009,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1029,26 +1029,26 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1057,15 +1057,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1097,14 +1097,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1125,14 +1125,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1153,14 +1153,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,26 +1169,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,26 +1197,26 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,26 +1225,26 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,26 +1253,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,26 +1281,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1312,23 +1312,23 @@
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1340,23 +1340,23 @@
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1368,23 +1368,23 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,16 +1396,16 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1489,14 +1489,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1505,26 +1505,26 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1533,26 +1533,26 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1561,54 +1561,54 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>332</v>
+        <v>896</v>
       </c>
       <c r="E30" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>495</v>
+        <v>896</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1617,26 +1617,26 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>495</v>
+        <v>896</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1645,54 +1645,54 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>213</v>
+        <v>896</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>277</v>
+        <v>896</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1701,26 +1701,26 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="D35" t="n">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1729,38 +1729,38 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1142</v>
+        <v>176</v>
       </c>
       <c r="D36" t="n">
-        <v>1108</v>
+        <v>143</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1769,26 +1769,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1142</v>
+        <v>176</v>
       </c>
       <c r="D37" t="n">
-        <v>1112</v>
+        <v>143</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1797,25 +1797,361 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>176</v>
+      </c>
+      <c r="D38" t="n">
+        <v>143</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>33</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>509</v>
+      </c>
+      <c r="D39" t="n">
+        <v>332</v>
+      </c>
+      <c r="E39" t="n">
+        <v>134</v>
+      </c>
+      <c r="F39" t="n">
+        <v>29</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>509</v>
+      </c>
+      <c r="D40" t="n">
+        <v>495</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>509</v>
+      </c>
+      <c r="D41" t="n">
+        <v>495</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>509</v>
+      </c>
+      <c r="D42" t="n">
+        <v>495</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>288</v>
+      </c>
+      <c r="D43" t="n">
+        <v>213</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>60</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>288</v>
+      </c>
+      <c r="D44" t="n">
+        <v>277</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>288</v>
+      </c>
+      <c r="D45" t="n">
+        <v>277</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>288</v>
+      </c>
+      <c r="D46" t="n">
+        <v>277</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>1142</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>13</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D50" t="n">
         <v>1111</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E50" t="n">
         <v>5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F50" t="n">
         <v>14</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,18 +785,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D2" t="n">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -805,15 +805,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,35 +841,35 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="D4" t="n">
-        <v>587</v>
+        <v>143</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -925,18 +925,18 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>923</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -945,15 +945,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,18 +981,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D9" t="n">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1001,15 +1001,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1088,12 +1088,12 @@
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,35 +1177,35 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>141</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>277</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,15 +1309,15 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45852</v>
+        <v>45858</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1569,18 +1569,18 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45853</v>
+        <v>45858</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>896</v>
+        <v>495</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1589,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,18 +1653,18 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D33" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1673,26 +1673,26 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H33" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D34" t="n">
-        <v>896</v>
+        <v>495</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1701,26 +1701,26 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="D35" t="n">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1729,54 +1729,54 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>176</v>
+        <v>1142</v>
       </c>
       <c r="D36" t="n">
-        <v>143</v>
+        <v>1112</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="D37" t="n">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1785,373 +1785,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>176</v>
+        <v>1142</v>
       </c>
       <c r="D38" t="n">
-        <v>143</v>
+        <v>1112</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G38" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>509</v>
-      </c>
-      <c r="D39" t="n">
-        <v>332</v>
-      </c>
-      <c r="E39" t="n">
-        <v>134</v>
-      </c>
-      <c r="F39" t="n">
-        <v>29</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>509</v>
-      </c>
-      <c r="D40" t="n">
-        <v>495</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>509</v>
-      </c>
-      <c r="D41" t="n">
-        <v>495</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>495</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>288</v>
-      </c>
-      <c r="D43" t="n">
-        <v>213</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>60</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>288</v>
-      </c>
-      <c r="D44" t="n">
-        <v>277</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>288</v>
-      </c>
-      <c r="D45" t="n">
-        <v>277</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>288</v>
-      </c>
-      <c r="D46" t="n">
-        <v>277</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1108</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>13</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>13</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1111</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>14</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,8 +735,8 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -785,35 +785,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>896</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,63 +841,63 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>176</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>143</v>
+        <v>585</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="D5" t="n">
-        <v>586</v>
+        <v>143</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -925,18 +925,18 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>923</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -945,15 +945,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,18 +981,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1001,26 +1001,26 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D10" t="n">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1029,15 +1029,15 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1069,14 +1069,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>141</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45858</v>
+        <v>45855</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,26 +1253,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45858</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,26 +1281,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45859</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>277</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,26 +1309,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1340,23 +1340,23 @@
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1368,23 +1368,23 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,16 +1396,16 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,18 +1513,18 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45855</v>
+        <v>45858</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>896</v>
+        <v>495</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,30 +1569,30 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="D30" t="n">
-        <v>495</v>
+        <v>141</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1601,14 +1601,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>896</v>
+        <v>495</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1617,38 +1617,38 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>896</v>
+        <v>492</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1657,42 +1657,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>176</v>
+        <v>1142</v>
       </c>
       <c r="D33" t="n">
-        <v>143</v>
+        <v>1112</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G33" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>495</v>
+        <v>277</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1704,118 +1704,34 @@
         <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1142</v>
       </c>
       <c r="D35" t="n">
-        <v>495</v>
+        <v>584</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>13</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>288</v>
-      </c>
-      <c r="D37" t="n">
-        <v>277</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1112</v>
-      </c>
-      <c r="E38" t="n">
-        <v>5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>13</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>33</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,58 +869,58 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45856</v>
+        <v>45858</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>176</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>143</v>
+        <v>585</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45855</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>288</v>
       </c>
       <c r="D6" t="n">
-        <v>586</v>
+        <v>276</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -929,14 +929,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1009,18 +1009,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>277</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1029,26 +1029,26 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1057,15 +1057,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,18 +1093,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,26 +1113,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,15 +1141,15 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,26 +1197,26 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,15 +1225,15 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1284,23 +1284,23 @@
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1312,12 +1312,12 @@
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,18 +1485,18 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>896</v>
+        <v>495</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1505,99 +1505,99 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="D28" t="n">
-        <v>495</v>
+        <v>52</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D29" t="n">
-        <v>896</v>
+        <v>141</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H29" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F30" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="n">
-        <v>33</v>
-      </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1608,13 +1608,13 @@
         <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1625,86 +1625,86 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>492</v>
+        <v>277</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>1112</v>
+        <v>277</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D34" t="n">
-        <v>277</v>
+        <v>1124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,35 +785,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D2" t="n">
-        <v>141</v>
+        <v>896</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,46 +897,46 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45861</v>
+        <v>45858</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>276</v>
+        <v>585</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>316</v>
+        <v>923</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -945,15 +945,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,18 +1009,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1029,26 +1029,26 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1057,26 +1057,26 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1088,23 +1088,23 @@
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,26 +1113,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,26 +1141,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,26 +1169,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45860</v>
+        <v>45858</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1200,23 +1200,23 @@
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1228,23 +1228,23 @@
         <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45858</v>
+        <v>45861</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1265,14 +1265,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1321,14 +1321,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,26 +1337,26 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D22" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1365,26 +1365,26 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,23 +1396,23 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1424,23 +1424,23 @@
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1452,23 +1452,23 @@
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1480,23 +1480,23 @@
         <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
-        <v>495</v>
+        <v>277</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1508,12 +1508,12 @@
         <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1524,13 +1524,13 @@
         <v>176</v>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>33</v>
@@ -1541,130 +1541,130 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>141</v>
+        <v>896</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>331</v>
+        <v>896</v>
       </c>
       <c r="E30" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45858</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>492</v>
+        <v>896</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>277</v>
+        <v>896</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1673,65 +1673,429 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1142</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>1124</v>
+        <v>896</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>945</v>
+      </c>
+      <c r="D35" t="n">
+        <v>896</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>15</v>
+      </c>
+      <c r="H35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>288</v>
+      </c>
+      <c r="D36" t="n">
+        <v>276</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>945</v>
+      </c>
+      <c r="D37" t="n">
+        <v>896</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>45859</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>945</v>
+      </c>
+      <c r="D38" t="n">
+        <v>896</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>15</v>
+      </c>
+      <c r="H38" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>509</v>
+      </c>
+      <c r="D39" t="n">
+        <v>495</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C40" t="n">
         <v>1142</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D40" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>176</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>87</v>
+      </c>
+      <c r="G41" t="n">
+        <v>33</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>176</v>
+      </c>
+      <c r="D42" t="n">
+        <v>141</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>33</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>509</v>
+      </c>
+      <c r="D43" t="n">
+        <v>331</v>
+      </c>
+      <c r="E43" t="n">
+        <v>134</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>509</v>
+      </c>
+      <c r="D44" t="n">
+        <v>492</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>288</v>
+      </c>
+      <c r="D45" t="n">
+        <v>277</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>288</v>
+      </c>
+      <c r="D46" t="n">
+        <v>277</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D48" t="n">
         <v>584</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E48" t="n">
         <v>72</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F48" t="n">
         <v>474</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -785,18 +785,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -805,15 +805,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,35 +925,35 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>923</v>
+        <v>213</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1069,14 +1069,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,26 +1197,26 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,15 +1225,15 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,26 +1309,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45858</v>
+        <v>45861</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,26 +1337,26 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45862</v>
+        <v>45860</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>143</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1365,15 +1365,15 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,18 +1401,18 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1424,51 +1424,51 @@
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D25" t="n">
-        <v>907</v>
+        <v>141</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45858</v>
+        <v>45860</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1480,23 +1480,23 @@
         <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45862</v>
+        <v>45859</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>277</v>
+        <v>896</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1505,75 +1505,75 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>141</v>
+        <v>896</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>896</v>
+        <v>332</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,67 +1625,67 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>332</v>
+        <v>896</v>
       </c>
       <c r="E32" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>896</v>
+        <v>276</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1709,11 +1709,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1737,139 +1737,139 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="D36" t="n">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D37" t="n">
-        <v>896</v>
+        <v>1124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D38" t="n">
-        <v>896</v>
+        <v>52</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="D39" t="n">
-        <v>495</v>
+        <v>141</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D40" t="n">
-        <v>1124</v>
+        <v>347</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>12</v>
@@ -1881,26 +1881,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="D41" t="n">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F41" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1909,87 +1909,87 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="D42" t="n">
-        <v>141</v>
+        <v>492</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="n">
-        <v>33</v>
-      </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D43" t="n">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="E43" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D44" t="n">
-        <v>492</v>
+        <v>277</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2017,30 +2017,30 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D46" t="n">
-        <v>277</v>
+        <v>1125</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>33</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,35 +841,35 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="D4" t="n">
-        <v>588</v>
+        <v>143</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,13 +936,13 @@
         <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,35 +981,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D9" t="n">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,35 +1093,35 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D13" t="n">
-        <v>896</v>
+        <v>591</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45859</v>
+        <v>45865</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1345,18 +1345,18 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45860</v>
+        <v>45865</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1368,23 +1368,23 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,23 +1396,23 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D24" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1421,47 +1421,47 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H24" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F25" t="n">
+        <v>30</v>
+      </c>
+      <c r="G25" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="n">
-        <v>33</v>
-      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,130 +1485,130 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>896</v>
+        <v>332</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D28" t="n">
-        <v>896</v>
+        <v>594</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>332</v>
+        <v>896</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
-        <v>896</v>
+        <v>276</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>176</v>
       </c>
       <c r="D31" t="n">
-        <v>896</v>
+        <v>143</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1617,82 +1617,82 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D32" t="n">
-        <v>896</v>
+        <v>1124</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D33" t="n">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>896</v>
+        <v>277</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1701,401 +1701,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D35" t="n">
-        <v>896</v>
+        <v>1125</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>176</v>
-      </c>
-      <c r="D36" t="n">
-        <v>143</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>33</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>176</v>
-      </c>
-      <c r="D38" t="n">
-        <v>52</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>87</v>
-      </c>
-      <c r="G38" t="n">
-        <v>33</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>176</v>
-      </c>
-      <c r="D39" t="n">
-        <v>141</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>33</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>509</v>
-      </c>
-      <c r="D40" t="n">
-        <v>347</v>
-      </c>
-      <c r="E40" t="n">
-        <v>121</v>
-      </c>
-      <c r="F40" t="n">
-        <v>27</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>509</v>
-      </c>
-      <c r="D41" t="n">
-        <v>331</v>
-      </c>
-      <c r="E41" t="n">
-        <v>134</v>
-      </c>
-      <c r="F41" t="n">
-        <v>30</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>492</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>288</v>
-      </c>
-      <c r="D43" t="n">
-        <v>277</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>288</v>
-      </c>
-      <c r="D44" t="n">
-        <v>277</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>288</v>
-      </c>
-      <c r="D45" t="n">
-        <v>277</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1125</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D48" t="n">
-        <v>584</v>
-      </c>
-      <c r="E48" t="n">
-        <v>72</v>
-      </c>
-      <c r="F48" t="n">
-        <v>474</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
         <v>12</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/released.xlsx
+++ b/minio-report-tracker/xlxs/released.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>33</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,10 +824,10 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
@@ -841,63 +841,63 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>176</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>143</v>
+        <v>573</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="D5" t="n">
-        <v>588</v>
+        <v>143</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,63 +981,63 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="D10" t="n">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,63 +1093,63 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1142</v>
+        <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>591</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,18 +1401,18 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>176</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>143</v>
+        <v>896</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1421,183 +1421,183 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>331</v>
+        <v>896</v>
       </c>
       <c r="E25" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>896</v>
+        <v>331</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>896</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1142</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>594</v>
+        <v>896</v>
       </c>
       <c r="E28" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D29" t="n">
-        <v>896</v>
+        <v>594</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>276</v>
+        <v>896</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1608,13 +1608,13 @@
         <v>176</v>
       </c>
       <c r="D31" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>33</v>
@@ -1625,27 +1625,27 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D32" t="n">
-        <v>1124</v>
+        <v>347</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>12</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         <v>509</v>
       </c>
       <c r="D33" t="n">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E33" t="n">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F33" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1685,53 +1685,81 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D34" t="n">
-        <v>277</v>
+        <v>1125</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>288</v>
+      </c>
+      <c r="D35" t="n">
+        <v>277</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>1142</v>
       </c>
-      <c r="D35" t="n">
-        <v>1125</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="D36" t="n">
+        <v>594</v>
+      </c>
+      <c r="E36" t="n">
+        <v>72</v>
+      </c>
+      <c r="F36" t="n">
+        <v>464</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>12</v>
       </c>
     </row>
